--- a/data/trans_orig/P1413-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1413-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>19167</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12068</v>
+        <v>11190</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31045</v>
+        <v>29282</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03879361063771274</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02442652651407449</v>
+        <v>0.02264961186397441</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06283627393649971</v>
+        <v>0.05926760676457667</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -765,19 +765,19 @@
         <v>22227</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14832</v>
+        <v>14590</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32718</v>
+        <v>32476</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04754505559886957</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03172680910776474</v>
+        <v>0.03120921506150428</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06998665226406482</v>
+        <v>0.06946965269926977</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>43</v>
@@ -786,19 +786,19 @@
         <v>41393</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30758</v>
+        <v>30545</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56258</v>
+        <v>55478</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04304839974658277</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03198739448942599</v>
+        <v>0.03176630141435256</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05850701906117241</v>
+        <v>0.05769587805260291</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>474897</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>463019</v>
+        <v>464782</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>481996</v>
+        <v>482874</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9612063893622873</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9371637260635002</v>
+        <v>0.9407323932354229</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9755734734859254</v>
+        <v>0.9773503881360256</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>465</v>
@@ -836,19 +836,19 @@
         <v>445262</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>434771</v>
+        <v>435013</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>452657</v>
+        <v>452899</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9524549444011304</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.930013347735935</v>
+        <v>0.9305303473007303</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9682731908922352</v>
+        <v>0.9687907849384957</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>945</v>
@@ -857,19 +857,19 @@
         <v>920160</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>905295</v>
+        <v>906075</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>930795</v>
+        <v>931008</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9569516002534172</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9414929809388283</v>
+        <v>0.9423041219473971</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.968012605510574</v>
+        <v>0.9682336985856475</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>51831</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38287</v>
+        <v>39656</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>66369</v>
+        <v>66282</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07047180604707626</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05205635172753281</v>
+        <v>0.0539183445789992</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09023802933472237</v>
+        <v>0.0901196927908334</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -982,19 +982,19 @@
         <v>60589</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47214</v>
+        <v>47836</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>77261</v>
+        <v>77379</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0968659655671201</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07548338069705134</v>
+        <v>0.07647727220706088</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.123519462105879</v>
+        <v>0.1237080753675708</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>109</v>
@@ -1003,19 +1003,19 @@
         <v>112420</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>94028</v>
+        <v>92366</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>133937</v>
+        <v>134968</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08260229596792242</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06908855253307593</v>
+        <v>0.06786715353588246</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09841227394834927</v>
+        <v>0.099169739046335</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>683658</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>669120</v>
+        <v>669207</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>697202</v>
+        <v>695833</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9295281939529237</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9097619706652772</v>
+        <v>0.9098803072091667</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9479436482724669</v>
+        <v>0.9460816554210009</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>533</v>
@@ -1053,19 +1053,19 @@
         <v>564905</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>548233</v>
+        <v>548115</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>578280</v>
+        <v>577658</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9031340344328799</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8764805378941211</v>
+        <v>0.8762919246324291</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9245166193029487</v>
+        <v>0.9235227277929391</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1185</v>
@@ -1074,19 +1074,19 @@
         <v>1248562</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1227045</v>
+        <v>1226014</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1266954</v>
+        <v>1268616</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9173977040320775</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9015877260516508</v>
+        <v>0.900830260953665</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9309114474669247</v>
+        <v>0.9321328464641178</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>91540</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>74432</v>
+        <v>74493</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>108925</v>
+        <v>112817</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1433296901094107</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1165424318511551</v>
+        <v>0.1166379831490615</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1705506038522841</v>
+        <v>0.176644868898954</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>93</v>
@@ -1199,19 +1199,19 @@
         <v>96626</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>79322</v>
+        <v>79334</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>116398</v>
+        <v>115124</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1400897890659712</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1150025276922189</v>
+        <v>0.1150189717312691</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1687553100407082</v>
+        <v>0.1669089444188677</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>185</v>
@@ -1220,19 +1220,19 @@
         <v>188166</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>163912</v>
+        <v>164255</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>215897</v>
+        <v>215292</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1416474534217528</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1233893102520859</v>
+        <v>0.1236479090449099</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1625224427487465</v>
+        <v>0.1620671109151592</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>547128</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>529743</v>
+        <v>525851</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>564236</v>
+        <v>564175</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8566703098905893</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8294493961477158</v>
+        <v>0.823355131101046</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8834575681488447</v>
+        <v>0.8833620168509385</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>565</v>
@@ -1270,19 +1270,19 @@
         <v>593118</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>573346</v>
+        <v>574620</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>610422</v>
+        <v>610410</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8599102109340289</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8312446899592918</v>
+        <v>0.8330910555811324</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8849974723077811</v>
+        <v>0.8849810282687312</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1086</v>
@@ -1291,19 +1291,19 @@
         <v>1140246</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1112515</v>
+        <v>1113120</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1164500</v>
+        <v>1164157</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8583525465782471</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8374775572512535</v>
+        <v>0.8379328890848409</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8766106897479141</v>
+        <v>0.8763520909550901</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>100485</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>83802</v>
+        <v>80885</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>122359</v>
+        <v>117153</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1935570194641416</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1614221238699307</v>
+        <v>0.1558030233522594</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2356921088154107</v>
+        <v>0.2256645715294477</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>116</v>
@@ -1416,19 +1416,19 @@
         <v>117662</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>101378</v>
+        <v>99588</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>138813</v>
+        <v>137882</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2281863006293869</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1966050856064857</v>
+        <v>0.1931336603964333</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2692050736334005</v>
+        <v>0.2673990575810671</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>213</v>
@@ -1437,19 +1437,19 @@
         <v>218147</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>191754</v>
+        <v>191904</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>243173</v>
+        <v>246276</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.210813011639168</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1853073368324218</v>
+        <v>0.1854524659322183</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2349979744338302</v>
+        <v>0.237995883711924</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>418662</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>396788</v>
+        <v>401994</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>435345</v>
+        <v>438262</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8064429805358584</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7643078911845894</v>
+        <v>0.7743354284705525</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8385778761300693</v>
+        <v>0.8441969766477407</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>386</v>
@@ -1487,19 +1487,19 @@
         <v>397980</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>376829</v>
+        <v>377760</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>414264</v>
+        <v>416054</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7718136993706131</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7307949263665995</v>
+        <v>0.7326009424189328</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8033949143935142</v>
+        <v>0.8068663396035666</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>773</v>
@@ -1508,19 +1508,19 @@
         <v>816642</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>791616</v>
+        <v>788513</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>843035</v>
+        <v>842885</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.789186988360832</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7650020255661697</v>
+        <v>0.762004116288076</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8146926631675782</v>
+        <v>0.8145475340677817</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>117425</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>99108</v>
+        <v>100324</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>134966</v>
+        <v>136169</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3036521801734903</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2562839381689375</v>
+        <v>0.2594295253186659</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.349011436994849</v>
+        <v>0.3521207774232365</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>104</v>
@@ -1633,19 +1633,19 @@
         <v>105895</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>88582</v>
+        <v>90456</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>122761</v>
+        <v>122368</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2621253166535185</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2192699549882535</v>
+        <v>0.2239095451327553</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3038754503376864</v>
+        <v>0.3029026440456774</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>223</v>
@@ -1654,19 +1654,19 @@
         <v>223320</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>198548</v>
+        <v>197689</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>247541</v>
+        <v>249406</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.282435087494725</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2511047479061519</v>
+        <v>0.2500188184268841</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3130672224400523</v>
+        <v>0.3154263446295605</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>269285</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>251744</v>
+        <v>250541</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>287602</v>
+        <v>286386</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6963478198265097</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6509885630051513</v>
+        <v>0.6478792225767636</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7437160618310625</v>
+        <v>0.7405704746813342</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>292</v>
@@ -1704,19 +1704,19 @@
         <v>298091</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>281225</v>
+        <v>281618</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>315404</v>
+        <v>313530</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7378746833464815</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6961245496623136</v>
+        <v>0.6970973559543229</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7807300450117466</v>
+        <v>0.7760904548672448</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>565</v>
@@ -1725,19 +1725,19 @@
         <v>567376</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>543155</v>
+        <v>541290</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>592148</v>
+        <v>593007</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.717564912505275</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6869327775599477</v>
+        <v>0.6845736553704393</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7488952520938481</v>
+        <v>0.7499811815731158</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>77338</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>63523</v>
+        <v>63494</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>92344</v>
+        <v>92516</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2643295830253715</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2171110658863263</v>
+        <v>0.2170102715001653</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3156163144743849</v>
+        <v>0.3162033222159304</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>139</v>
@@ -1850,19 +1850,19 @@
         <v>127508</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>111141</v>
+        <v>112278</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>143000</v>
+        <v>144162</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3718160987688794</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3240897857843514</v>
+        <v>0.3274039289992002</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4169907562896101</v>
+        <v>0.4203776252630793</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>222</v>
@@ -1871,19 +1871,19 @@
         <v>204847</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>184073</v>
+        <v>183577</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>225119</v>
+        <v>227891</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3223308335483439</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2896430674151786</v>
+        <v>0.2888623112960804</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3542293350937726</v>
+        <v>0.3585922341147043</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>215245</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>200239</v>
+        <v>200067</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>229060</v>
+        <v>229089</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7356704169746285</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.684383685525615</v>
+        <v>0.6837966777840697</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7828889341136738</v>
+        <v>0.7829897284998347</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>232</v>
@@ -1921,19 +1921,19 @@
         <v>215426</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>199934</v>
+        <v>198772</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>231793</v>
+        <v>230656</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6281839012311206</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.58300924371039</v>
+        <v>0.5796223747369208</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6759102142156486</v>
+        <v>0.6725960710007999</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>452</v>
@@ -1942,19 +1942,19 @@
         <v>430670</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>410398</v>
+        <v>407626</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>451444</v>
+        <v>451940</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6776691664516561</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6457706649062273</v>
+        <v>0.6414077658852955</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7103569325848214</v>
+        <v>0.7111376887039195</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>72462</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>60361</v>
+        <v>60851</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>86239</v>
+        <v>86510</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3452517573075731</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2875953144670639</v>
+        <v>0.2899267596347499</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4108919224888368</v>
+        <v>0.4121796761729352</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>104</v>
@@ -2067,19 +2067,19 @@
         <v>119711</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>101906</v>
+        <v>103694</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>139106</v>
+        <v>139517</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3585144934871128</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3051924725970485</v>
+        <v>0.3105467510090504</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4165991260762012</v>
+        <v>0.4178299311523345</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>181</v>
@@ -2088,19 +2088,19 @@
         <v>192173</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>169705</v>
+        <v>169393</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>213237</v>
+        <v>214535</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3533955728868104</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3120784141809587</v>
+        <v>0.3115036225320825</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3921296557876144</v>
+        <v>0.3945173725512012</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>137421</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>123644</v>
+        <v>123373</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>149522</v>
+        <v>149032</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6547482426924269</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5891080775111632</v>
+        <v>0.5878203238270648</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7124046855329361</v>
+        <v>0.7100732403652503</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>186</v>
@@ -2138,19 +2138,19 @@
         <v>214197</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>194802</v>
+        <v>194391</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>232002</v>
+        <v>230214</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6414855065128872</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5834008739237988</v>
+        <v>0.5821700688476655</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6948075274029512</v>
+        <v>0.6894532489909495</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>329</v>
@@ -2159,19 +2159,19 @@
         <v>351618</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>330554</v>
+        <v>329256</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>374086</v>
+        <v>374398</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6466044271131896</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6078703442123855</v>
+        <v>0.6054826274487988</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6879215858190413</v>
+        <v>0.6884963774679175</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>530248</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>486494</v>
+        <v>493007</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>574118</v>
+        <v>577396</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.161831676252726</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1484779204118798</v>
+        <v>0.1504657268873401</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1752205520105942</v>
+        <v>0.1762209470458292</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>638</v>
@@ -2284,19 +2284,19 @@
         <v>650219</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>603165</v>
+        <v>604311</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>695624</v>
+        <v>696819</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1924180749738701</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1784936176616126</v>
+        <v>0.1788327100148702</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2058547955038011</v>
+        <v>0.2062084375556609</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1176</v>
@@ -2305,19 +2305,19 @@
         <v>1180467</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1118387</v>
+        <v>1114031</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1246914</v>
+        <v>1235946</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1773607483701837</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.168033460816211</v>
+        <v>0.1673790186796687</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1873441785768108</v>
+        <v>0.1856962932207405</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>2746295</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2702425</v>
+        <v>2699147</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2790049</v>
+        <v>2783536</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8381683237472739</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8247794479894057</v>
+        <v>0.8237790529541708</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8515220795881202</v>
+        <v>0.8495342731126598</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2659</v>
@@ -2355,19 +2355,19 @@
         <v>2728978</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2683573</v>
+        <v>2682378</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2776032</v>
+        <v>2774886</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8075819250261298</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7941452044961991</v>
+        <v>0.7937915624443391</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8215063823383875</v>
+        <v>0.8211672899851298</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5335</v>
@@ -2376,19 +2376,19 @@
         <v>5475274</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5408827</v>
+        <v>5419795</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5537354</v>
+        <v>5541710</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8226392516298163</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8126558214231888</v>
+        <v>0.8143037067792593</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.831966539183789</v>
+        <v>0.832620981320331</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>11254</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5345</v>
+        <v>5855</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20350</v>
+        <v>20061</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02477974269861149</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01176863496266337</v>
+        <v>0.01289234306924864</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.044810178206491</v>
+        <v>0.04417358504160268</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -2744,19 +2744,19 @@
         <v>16563</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10639</v>
+        <v>9690</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27218</v>
+        <v>25983</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03849907124249654</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0247280736906915</v>
+        <v>0.02252271678387142</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06326324348898127</v>
+        <v>0.06039294080122014</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -2765,19 +2765,19 @@
         <v>27817</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17799</v>
+        <v>18704</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39604</v>
+        <v>39728</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0314538997572644</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02012555120884714</v>
+        <v>0.02114918439511331</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04478187578469945</v>
+        <v>0.04492170745307035</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>442892</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>433796</v>
+        <v>434085</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>448801</v>
+        <v>448291</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9752202573013885</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9551898217935079</v>
+        <v>0.9558264149583969</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9882313650373366</v>
+        <v>0.9871076569307508</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>405</v>
@@ -2815,19 +2815,19 @@
         <v>413667</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>403012</v>
+        <v>404247</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>419591</v>
+        <v>420540</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9615009287575035</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9367367565110186</v>
+        <v>0.9396070591987798</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9752719263093085</v>
+        <v>0.9774772832161286</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>841</v>
@@ -2836,19 +2836,19 @@
         <v>856559</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>844772</v>
+        <v>844648</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>866577</v>
+        <v>865672</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9685461002427356</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9552181242153006</v>
+        <v>0.9550782925469297</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9798744487911528</v>
+        <v>0.9788508156048867</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>32852</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22363</v>
+        <v>21982</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45645</v>
+        <v>46946</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04781321649214101</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03254738647722143</v>
+        <v>0.03199341791303683</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06643293908713936</v>
+        <v>0.06832672774527083</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -2961,19 +2961,19 @@
         <v>49619</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36957</v>
+        <v>36722</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>64547</v>
+        <v>65075</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08130850262822986</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06056024729375961</v>
+        <v>0.06017495843685611</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1057704076598243</v>
+        <v>0.1066362473153998</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>76</v>
@@ -2982,19 +2982,19 @@
         <v>82471</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>65777</v>
+        <v>65970</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>104485</v>
+        <v>104438</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06356902526385601</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05070119858086645</v>
+        <v>0.05085012751180183</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08053740038158778</v>
+        <v>0.08050157844430748</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>654235</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>641442</v>
+        <v>640141</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>664724</v>
+        <v>665105</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.952186783507859</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.933567060912861</v>
+        <v>0.9316732722547294</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9674526135227789</v>
+        <v>0.9680065820869633</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>526</v>
@@ -3032,19 +3032,19 @@
         <v>560636</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>545708</v>
+        <v>545180</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>573298</v>
+        <v>573533</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9186914973717701</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8942295923401754</v>
+        <v>0.8933637526846002</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9394397527062402</v>
+        <v>0.9398250415631438</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1162</v>
@@ -3053,19 +3053,19 @@
         <v>1214871</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1192857</v>
+        <v>1192904</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1231565</v>
+        <v>1231372</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.936430974736144</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9194625996184121</v>
+        <v>0.9194984215556928</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9492988014191331</v>
+        <v>0.9491498724881983</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>42863</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30158</v>
+        <v>31260</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56296</v>
+        <v>57057</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06286133945613577</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04422852579991876</v>
+        <v>0.045845176788185</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08256245723676571</v>
+        <v>0.08367775404339185</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>88</v>
@@ -3178,19 +3178,19 @@
         <v>92410</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>74929</v>
+        <v>75599</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>111045</v>
+        <v>112133</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1302327073751264</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1055969618006674</v>
+        <v>0.1065413500186511</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1564949552103486</v>
+        <v>0.1580288205933914</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>131</v>
@@ -3199,19 +3199,19 @@
         <v>135273</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>113384</v>
+        <v>113856</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>158179</v>
+        <v>157884</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09721790120745061</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08148708432234329</v>
+        <v>0.0818258738742729</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1136802220549045</v>
+        <v>0.1134679815241001</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>639000</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>625567</v>
+        <v>624806</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>651705</v>
+        <v>650603</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9371386605438642</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9174375427632343</v>
+        <v>0.9163222459566082</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9557714742000814</v>
+        <v>0.9541548232118151</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>578</v>
@@ -3249,19 +3249,19 @@
         <v>617164</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>598529</v>
+        <v>597441</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>634645</v>
+        <v>633975</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8697672926248735</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8435050447896513</v>
+        <v>0.8419711794066087</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8944030381993325</v>
+        <v>0.8934586499813486</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1186</v>
@@ -3270,19 +3270,19 @@
         <v>1256164</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1233258</v>
+        <v>1233553</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1278053</v>
+        <v>1277581</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9027820987925494</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8863197779450953</v>
+        <v>0.8865320184758998</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9185129156776567</v>
+        <v>0.9181741261257269</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>55332</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>42066</v>
+        <v>41043</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>72198</v>
+        <v>73158</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09002683059270138</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06844229152756728</v>
+        <v>0.0667783039459565</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1174675050347305</v>
+        <v>0.1190302106210697</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>95</v>
@@ -3395,19 +3395,19 @@
         <v>107456</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>86223</v>
+        <v>88747</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>127165</v>
+        <v>128078</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1749346355345036</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1403675804398263</v>
+        <v>0.1444771927177196</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2070207555262799</v>
+        <v>0.2085066747380521</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>146</v>
@@ -3416,19 +3416,19 @@
         <v>162788</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>138800</v>
+        <v>136970</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>186143</v>
+        <v>188246</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1324685439713005</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1129479861789201</v>
+        <v>0.1114588482688946</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.151473473307361</v>
+        <v>0.1531851807026225</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>559285</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>542419</v>
+        <v>541459</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>572551</v>
+        <v>573574</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9099731694072987</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8825324949652695</v>
+        <v>0.8809697893789304</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9315577084724328</v>
+        <v>0.9332216960540438</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>443</v>
@@ -3466,19 +3466,19 @@
         <v>506808</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>487099</v>
+        <v>486186</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>528041</v>
+        <v>525517</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8250653644654964</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7929792444737201</v>
+        <v>0.7914933252619479</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8596324195601737</v>
+        <v>0.8555228072822808</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>940</v>
@@ -3487,19 +3487,19 @@
         <v>1066092</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1042737</v>
+        <v>1040634</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1090080</v>
+        <v>1091910</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8675314560286995</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8485265266926391</v>
+        <v>0.8468148192973775</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.88705201382108</v>
+        <v>0.8885411517311054</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>53060</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41277</v>
+        <v>40681</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>67074</v>
+        <v>67428</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1235593205952926</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09612114230169891</v>
+        <v>0.09473269522693441</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1561926454752703</v>
+        <v>0.1570169424698503</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>106</v>
@@ -3612,19 +3612,19 @@
         <v>117791</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>100059</v>
+        <v>98405</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>136709</v>
+        <v>137019</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2630441133689555</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2234456717768237</v>
+        <v>0.2197530518616136</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3052905729616945</v>
+        <v>0.3059827832135614</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>157</v>
@@ -3633,19 +3633,19 @@
         <v>170851</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>145195</v>
+        <v>146214</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>194609</v>
+        <v>195535</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1947622548519176</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1655150813360969</v>
+        <v>0.1666769919510322</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2218450434036864</v>
+        <v>0.2229002809631894</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>376369</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>362355</v>
+        <v>362001</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>388152</v>
+        <v>388748</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8764406794047074</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8438073545247298</v>
+        <v>0.8429830575301497</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9038788576983011</v>
+        <v>0.9052673047730656</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>300</v>
@@ -3683,19 +3683,19 @@
         <v>330009</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>311091</v>
+        <v>310781</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>347741</v>
+        <v>349395</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7369558866310445</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6947094270383054</v>
+        <v>0.6940172167864386</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7765543282231762</v>
+        <v>0.7802469481383862</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>642</v>
@@ -3704,19 +3704,19 @@
         <v>706378</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>682620</v>
+        <v>681694</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>732034</v>
+        <v>731015</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8052377451480824</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7781549565963136</v>
+        <v>0.7770997190368106</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8344849186639031</v>
+        <v>0.8333230080489676</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>58504</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>44479</v>
+        <v>45711</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>74478</v>
+        <v>74212</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1888529152080733</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1435791536401284</v>
+        <v>0.1475562963646788</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2404191751182269</v>
+        <v>0.2395594268498527</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>106</v>
@@ -3829,19 +3829,19 @@
         <v>110163</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>93355</v>
+        <v>93530</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>126983</v>
+        <v>127728</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3111976395248408</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2637175512768409</v>
+        <v>0.2642115075971459</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.358712680964253</v>
+        <v>0.3608179363976501</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>158</v>
@@ -3850,19 +3850,19 @@
         <v>168667</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>145600</v>
+        <v>148860</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>191524</v>
+        <v>193521</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2540995340295235</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2193495946692666</v>
+        <v>0.2242606379631809</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2885337419943647</v>
+        <v>0.2915424060695425</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>251282</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>235308</v>
+        <v>235574</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>265307</v>
+        <v>264075</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8111470847919268</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7595808248817728</v>
+        <v>0.7604405731501473</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8564208463598715</v>
+        <v>0.8524437036353212</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>238</v>
@@ -3900,19 +3900,19 @@
         <v>243833</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>227013</v>
+        <v>226268</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>260641</v>
+        <v>260466</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6888023604751592</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6412873190357472</v>
+        <v>0.6391820636023499</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7362824487231596</v>
+        <v>0.7357884924028543</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>468</v>
@@ -3921,19 +3921,19 @@
         <v>495115</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>472258</v>
+        <v>470261</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>518182</v>
+        <v>514922</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7459004659704765</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7114662580056355</v>
+        <v>0.7084575939304576</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7806504053307336</v>
+        <v>0.7757393620368196</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>55089</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>42142</v>
+        <v>41287</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>70400</v>
+        <v>69546</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2204883122007572</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.168670197288069</v>
+        <v>0.1652454832998227</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2817694515961948</v>
+        <v>0.2783517592673305</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>137</v>
@@ -4046,19 +4046,19 @@
         <v>151544</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>132168</v>
+        <v>132286</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>173218</v>
+        <v>172162</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3895940800316128</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3397806213292274</v>
+        <v>0.3400839417678171</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4453139668943524</v>
+        <v>0.4425990451326378</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>187</v>
@@ -4067,19 +4067,19 @@
         <v>206633</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>183011</v>
+        <v>183806</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>230396</v>
+        <v>231262</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3234556233780082</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2864780720979251</v>
+        <v>0.2877223835980507</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3606524543097899</v>
+        <v>0.3620092510675098</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>194762</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>179451</v>
+        <v>180305</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>207709</v>
+        <v>208564</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7795116877992427</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7182305484038053</v>
+        <v>0.7216482407326698</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8313298027119311</v>
+        <v>0.8347545167001772</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>213</v>
@@ -4117,19 +4117,19 @@
         <v>237435</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>215761</v>
+        <v>216817</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>256811</v>
+        <v>256693</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6104059199683871</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5546860331056476</v>
+        <v>0.5574009548673619</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6602193786707725</v>
+        <v>0.6599160582321827</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>385</v>
@@ -4138,19 +4138,19 @@
         <v>432197</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>408434</v>
+        <v>407568</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>455819</v>
+        <v>455024</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6765443766219918</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.63934754569021</v>
+        <v>0.6379907489324904</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7135219279020749</v>
+        <v>0.7122776164019494</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>308953</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>276856</v>
+        <v>276101</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>342302</v>
+        <v>343690</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09015856069546672</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0807917652590808</v>
+        <v>0.08057147521106037</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09989017190238039</v>
+        <v>0.1002953473902994</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>593</v>
@@ -4263,19 +4263,19 @@
         <v>645546</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>600691</v>
+        <v>604813</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>695564</v>
+        <v>693124</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1815831537791377</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1689659605699271</v>
+        <v>0.1701255694608248</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1956526500634283</v>
+        <v>0.1949662812637053</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>881</v>
@@ -4284,19 +4284,19 @@
         <v>954499</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>894341</v>
+        <v>896798</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1012130</v>
+        <v>1016417</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1367110012948312</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1280945850931611</v>
+        <v>0.1284465322192595</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1449653714807951</v>
+        <v>0.1455793343935314</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3117826</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3084477</v>
+        <v>3083089</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3149923</v>
+        <v>3150678</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9098414393045333</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9001098280976195</v>
+        <v>0.8997046526097007</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9192082347409192</v>
+        <v>0.9194285247889395</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2703</v>
@@ -4334,19 +4334,19 @@
         <v>2909552</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2859534</v>
+        <v>2861974</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2954407</v>
+        <v>2950285</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8184168462208623</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8043473499365716</v>
+        <v>0.8050337187362947</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8310340394300728</v>
+        <v>0.8298744305391754</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5624</v>
@@ -4355,19 +4355,19 @@
         <v>6027378</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5969747</v>
+        <v>5965460</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6087536</v>
+        <v>6085079</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8632889987051688</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8550346285192048</v>
+        <v>0.8544206656064686</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8719054149068389</v>
+        <v>0.8715534677807403</v>
       </c>
     </row>
     <row r="27">
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8237</v>
+        <v>7735</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005260373386942366</v>
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01963745509738639</v>
+        <v>0.01843942347932778</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -4723,19 +4723,19 @@
         <v>10667</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5076</v>
+        <v>5636</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18434</v>
+        <v>17676</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02695356108896986</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01282732597194606</v>
+        <v>0.01424001868479091</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04657891074472066</v>
+        <v>0.04466505763352698</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -4744,19 +4744,19 @@
         <v>12874</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6935</v>
+        <v>7080</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20576</v>
+        <v>21631</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01579152891560191</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008507447302475364</v>
+        <v>0.008684185428307543</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02523931816931771</v>
+        <v>0.02653395230928168</v>
       </c>
     </row>
     <row r="5">
@@ -4773,7 +4773,7 @@
         <v>417256</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>411226</v>
+        <v>411728</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>419463</v>
@@ -4782,7 +4782,7 @@
         <v>0.9947396266130576</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9803625449026134</v>
+        <v>0.9815605765206722</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -4794,19 +4794,19 @@
         <v>385088</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>377321</v>
+        <v>378079</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>390679</v>
+        <v>390119</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9730464389110302</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9534210892552788</v>
+        <v>0.9553349423664728</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9871726740280539</v>
+        <v>0.985759981315209</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>784</v>
@@ -4815,19 +4815,19 @@
         <v>802344</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>794642</v>
+        <v>793587</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>808283</v>
+        <v>808138</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9842084710843981</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9747606818306823</v>
+        <v>0.9734660476907185</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9914925526975247</v>
+        <v>0.9913158145716926</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>16560</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8935</v>
+        <v>9122</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27593</v>
+        <v>28111</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0280448348520712</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01513123177916477</v>
+        <v>0.01544753871116713</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04672773291674529</v>
+        <v>0.04760585759089633</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -4940,19 +4940,19 @@
         <v>32161</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21597</v>
+        <v>22109</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43128</v>
+        <v>44086</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0570698938721169</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03832395252409143</v>
+        <v>0.03923136958562014</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07652998358799307</v>
+        <v>0.07822928860104356</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>46</v>
@@ -4961,19 +4961,19 @@
         <v>48722</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36342</v>
+        <v>35656</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>64648</v>
+        <v>63055</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04221842454500185</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0314908903485273</v>
+        <v>0.03089700032966735</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05601898809521282</v>
+        <v>0.05463874119752882</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>573936</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>562903</v>
+        <v>562385</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>581561</v>
+        <v>581374</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9719551651479288</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9532722670832547</v>
+        <v>0.9523941424091037</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9848687682208352</v>
+        <v>0.9845524612888329</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>547</v>
@@ -5011,19 +5011,19 @@
         <v>531383</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>520416</v>
+        <v>519458</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>541947</v>
+        <v>541435</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9429301061278831</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9234700164120069</v>
+        <v>0.9217707113989567</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9616760474759084</v>
+        <v>0.96076863041438</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1100</v>
@@ -5032,19 +5032,19 @@
         <v>1105318</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1089392</v>
+        <v>1090985</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1117698</v>
+        <v>1118384</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9577815754549982</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9439810119047872</v>
+        <v>0.9453612588024711</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9685091096514727</v>
+        <v>0.9691029996703326</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>45561</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33025</v>
+        <v>33040</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>59691</v>
+        <v>60417</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0680938591775475</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04935690635895929</v>
+        <v>0.04937951917158791</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08921080586206173</v>
+        <v>0.090296380162354</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>59</v>
@@ -5157,19 +5157,19 @@
         <v>57571</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44867</v>
+        <v>44174</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>73787</v>
+        <v>73095</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08704620195154471</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06783744853690157</v>
+        <v>0.06679025254860779</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.111563544505263</v>
+        <v>0.1105179584368892</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>101</v>
@@ -5178,19 +5178,19 @@
         <v>103133</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>86022</v>
+        <v>85555</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>125652</v>
+        <v>124012</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07751511428351214</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06465490943165789</v>
+        <v>0.06430389704427103</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09444053860721395</v>
+        <v>0.09320797251517959</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>623536</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>609406</v>
+        <v>608680</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>636072</v>
+        <v>636057</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9319061408224525</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9107891941379382</v>
+        <v>0.9097036198376459</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9506430936410406</v>
+        <v>0.9506204808284121</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>606</v>
@@ -5228,19 +5228,19 @@
         <v>603815</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>587599</v>
+        <v>588291</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>616519</v>
+        <v>617212</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9129537980484553</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.888436455494737</v>
+        <v>0.8894820415631108</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9321625514630983</v>
+        <v>0.9332097474513923</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1202</v>
@@ -5249,19 +5249,19 @@
         <v>1227350</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1204831</v>
+        <v>1206471</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1244461</v>
+        <v>1244928</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9224848857164879</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9055594613927856</v>
+        <v>0.9067920274848202</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9353450905683419</v>
+        <v>0.935696102955729</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>59145</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>45113</v>
+        <v>45584</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>76847</v>
+        <v>75424</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09154822746781166</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06982849258616095</v>
+        <v>0.07055770685163502</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1189486544884246</v>
+        <v>0.11674677609758</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>80</v>
@@ -5374,19 +5374,19 @@
         <v>86220</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>69373</v>
+        <v>67065</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>105046</v>
+        <v>103596</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1328355333179453</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1068788239868101</v>
+        <v>0.1033232448392442</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1618385569423692</v>
+        <v>0.1596044389920229</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>134</v>
@@ -5395,19 +5395,19 @@
         <v>145365</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>124010</v>
+        <v>120706</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>169640</v>
+        <v>167271</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1122401554233854</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09575161372905844</v>
+        <v>0.09320019169598109</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1309832840545816</v>
+        <v>0.1291541862551674</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>586903</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>569201</v>
+        <v>570624</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>600935</v>
+        <v>600464</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9084517725321883</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8810513455115755</v>
+        <v>0.8832532239024202</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9301715074138394</v>
+        <v>0.9294422931483651</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>522</v>
@@ -5445,19 +5445,19 @@
         <v>562857</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>544031</v>
+        <v>545481</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>579704</v>
+        <v>582012</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8671644666820547</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.838161443057631</v>
+        <v>0.8403955610079772</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.89312117601319</v>
+        <v>0.8966767551607558</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1050</v>
@@ -5466,19 +5466,19 @@
         <v>1149760</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1125485</v>
+        <v>1127854</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1171115</v>
+        <v>1174419</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8877598445766146</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8690167159454184</v>
+        <v>0.8708458137448329</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9042483862709416</v>
+        <v>0.906799808304019</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>59303</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>45571</v>
+        <v>43501</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>75626</v>
+        <v>74388</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1240855788027355</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09535270435241515</v>
+        <v>0.09102155108401119</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1582401287869458</v>
+        <v>0.1556508323732327</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>91</v>
@@ -5591,19 +5591,19 @@
         <v>103989</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>86218</v>
+        <v>86071</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>126314</v>
+        <v>124892</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2092971785548953</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1735292184116541</v>
+        <v>0.1732328224959819</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2542302993288517</v>
+        <v>0.2513686483580032</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>142</v>
@@ -5612,19 +5612,19 @@
         <v>163292</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>140960</v>
+        <v>137787</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>188889</v>
+        <v>187661</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1675188282352434</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1446090431020406</v>
+        <v>0.1413542168592247</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1937788111745101</v>
+        <v>0.1925183948543512</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>418615</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>402292</v>
+        <v>403530</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>432347</v>
+        <v>434417</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8759144211972645</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8417598712130541</v>
+        <v>0.8443491676267676</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9046472956475847</v>
+        <v>0.9089784489159892</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>342</v>
@@ -5662,19 +5662,19 @@
         <v>392860</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>370535</v>
+        <v>371957</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>410631</v>
+        <v>410778</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7907028214451047</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7457697006711482</v>
+        <v>0.7486313516419968</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8264707815883459</v>
+        <v>0.8267671775040178</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>715</v>
@@ -5683,19 +5683,19 @@
         <v>811475</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>785878</v>
+        <v>787106</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>833807</v>
+        <v>836980</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8324811717647566</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8062211888254899</v>
+        <v>0.8074816051456488</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8553909568979594</v>
+        <v>0.8586457831407754</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>44558</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>33426</v>
+        <v>33528</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>59102</v>
+        <v>58613</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1332752600241792</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09998022759514955</v>
+        <v>0.1002829992306587</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1767786555523916</v>
+        <v>0.1753157226852087</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>78</v>
@@ -5808,19 +5808,19 @@
         <v>80235</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>65181</v>
+        <v>65761</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>97476</v>
+        <v>97175</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2123967365451179</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.172544712322697</v>
+        <v>0.17408175993004</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2580359186156658</v>
+        <v>0.2572379757613352</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>120</v>
@@ -5829,19 +5829,19 @@
         <v>124793</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>104598</v>
+        <v>106494</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>147547</v>
+        <v>145401</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1752488917321894</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1468889927073395</v>
+        <v>0.1495505098286752</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2072027080454025</v>
+        <v>0.2041884542510627</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>289772</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>275228</v>
+        <v>275717</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>300904</v>
+        <v>300802</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8667247399758208</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8232213444476075</v>
+        <v>0.8246842773147911</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9000197724048503</v>
+        <v>0.899717000769341</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>276</v>
@@ -5879,19 +5879,19 @@
         <v>297527</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>280286</v>
+        <v>280587</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>312581</v>
+        <v>312001</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7876032634548821</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7419640813843342</v>
+        <v>0.7427620242386649</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8274552876773031</v>
+        <v>0.8259182400699601</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>559</v>
@@ -5900,19 +5900,19 @@
         <v>587299</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>564545</v>
+        <v>566691</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>607494</v>
+        <v>605598</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8247511082678106</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7927972919545974</v>
+        <v>0.7958115457489374</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8531110072926604</v>
+        <v>0.8504494901713249</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>50155</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>39340</v>
+        <v>38903</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>63584</v>
+        <v>62900</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1951566159880549</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1530748504909554</v>
+        <v>0.151374451383387</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2474097680994415</v>
+        <v>0.2447473372040318</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>92</v>
@@ -6025,19 +6025,19 @@
         <v>121896</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>101632</v>
+        <v>101782</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>142737</v>
+        <v>141805</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3046113362741747</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2539722880141244</v>
+        <v>0.2543474519471705</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3566918551881864</v>
+        <v>0.3543623357765313</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>150</v>
@@ -6046,19 +6046,19 @@
         <v>172051</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>150208</v>
+        <v>150087</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>197727</v>
+        <v>198648</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2618069284152191</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2285692531806072</v>
+        <v>0.2283848443887277</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3008773466632212</v>
+        <v>0.3022798696922875</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>206843</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>193414</v>
+        <v>194098</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>217658</v>
+        <v>218095</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.804843384011945</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7525902319005585</v>
+        <v>0.7552526627959683</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8469251495090446</v>
+        <v>0.848625548616613</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>209</v>
@@ -6096,19 +6096,19 @@
         <v>278273</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>257432</v>
+        <v>258364</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>298537</v>
+        <v>298387</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6953886637258252</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6433081448118136</v>
+        <v>0.6456376642234696</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7460277119858756</v>
+        <v>0.7456525480528295</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>453</v>
@@ -6117,19 +6117,19 @@
         <v>485116</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>459440</v>
+        <v>458519</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>506959</v>
+        <v>507080</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7381930715847809</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6991226533367788</v>
+        <v>0.6977201303077124</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7714307468193928</v>
+        <v>0.7716151556112719</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>277488</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>245565</v>
+        <v>242607</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>311764</v>
+        <v>309892</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08175006649319923</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07234534503102853</v>
+        <v>0.07147386150837934</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09184800556334456</v>
+        <v>0.09129643426613057</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>443</v>
@@ -6242,19 +6242,19 @@
         <v>492741</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>453845</v>
+        <v>450531</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>539262</v>
+        <v>538752</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1390138869810334</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1280404166860951</v>
+        <v>0.1271055238490895</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1521388044899166</v>
+        <v>0.1519947269217912</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>706</v>
@@ -6263,19 +6263,19 @@
         <v>770229</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>717325</v>
+        <v>715984</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>825510</v>
+        <v>823104</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1110017116743077</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1033774125033427</v>
+        <v>0.1031841270932156</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.118968511710014</v>
+        <v>0.1186218275903254</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>3116862</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3082586</v>
+        <v>3084458</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3148785</v>
+        <v>3151743</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9182499335068007</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9081519944366553</v>
+        <v>0.9087035657338692</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9276546549689714</v>
+        <v>0.9285261384916206</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2895</v>
@@ -6313,19 +6313,19 @@
         <v>3051801</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3005280</v>
+        <v>3005790</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3090697</v>
+        <v>3094011</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8609861130189667</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8478611955100827</v>
+        <v>0.8480052730782087</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8719595833139049</v>
+        <v>0.8728944761509104</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5863</v>
@@ -6334,19 +6334,19 @@
         <v>6168663</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6113382</v>
+        <v>6115788</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6221567</v>
+        <v>6222908</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8889982883256924</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8810314882899862</v>
+        <v>0.8813781724096745</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8966225874966574</v>
+        <v>0.8968158729067847</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>20495</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8606</v>
+        <v>8563</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41924</v>
+        <v>40335</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05025841626270779</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02110354930147407</v>
+        <v>0.02099898476467135</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1028063090746565</v>
+        <v>0.09890961550649544</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -6702,19 +6702,19 @@
         <v>34715</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20776</v>
+        <v>20185</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55156</v>
+        <v>54752</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09576150902986739</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05731175138854022</v>
+        <v>0.05568157987147977</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1521505531182396</v>
+        <v>0.1510352399348269</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -6723,19 +6723,19 @@
         <v>55210</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>35119</v>
+        <v>36910</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>79582</v>
+        <v>80645</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07167255120976709</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04559061209458382</v>
+        <v>0.04791584689244455</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1033129728515147</v>
+        <v>0.104691718172693</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>387298</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>365869</v>
+        <v>367458</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>399187</v>
+        <v>399230</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9497415837372923</v>
+        <v>0.9497415837372922</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8971936909253461</v>
+        <v>0.9010903844935044</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.978896450698526</v>
+        <v>0.9790010152353288</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>191</v>
@@ -6773,19 +6773,19 @@
         <v>327797</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>307356</v>
+        <v>307760</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>341736</v>
+        <v>342327</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9042384909701325</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8478494468817608</v>
+        <v>0.8489647600651733</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9426882486114601</v>
+        <v>0.9443184201285203</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>356</v>
@@ -6794,19 +6794,19 @@
         <v>715095</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>690723</v>
+        <v>689660</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>735186</v>
+        <v>733395</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9283274487902329</v>
+        <v>0.9283274487902328</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8966870271484851</v>
+        <v>0.8953082818273069</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9544093879054161</v>
+        <v>0.9520841531075555</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>33415</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21339</v>
+        <v>20067</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49972</v>
+        <v>49728</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.07042710557807105</v>
+        <v>0.07042710557807104</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04497654348675995</v>
+        <v>0.04229422413208823</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.105324601515684</v>
+        <v>0.104810157348243</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>49</v>
@@ -6919,19 +6919,19 @@
         <v>55399</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42649</v>
+        <v>40875</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>71929</v>
+        <v>71239</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1105592920361051</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08511433621176431</v>
+        <v>0.08157400194056061</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1435476947968246</v>
+        <v>0.142169846977214</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>71</v>
@@ -6940,19 +6940,19 @@
         <v>88814</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>69616</v>
+        <v>71108</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>110696</v>
+        <v>112173</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09104086924924154</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07136120201878372</v>
+        <v>0.07289070041694072</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1134717318704974</v>
+        <v>0.1149856718116508</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>441042</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>424485</v>
+        <v>424729</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>453118</v>
+        <v>454390</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9295728944219289</v>
+        <v>0.9295728944219288</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8946753984843168</v>
+        <v>0.8951898426517569</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9550234565132401</v>
+        <v>0.9577057758679117</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>411</v>
@@ -6990,19 +6990,19 @@
         <v>445684</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>429154</v>
+        <v>429844</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>458434</v>
+        <v>460208</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8894407079638947</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8564523052031755</v>
+        <v>0.8578301530227865</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9148856637882355</v>
+        <v>0.9184259980594398</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>690</v>
@@ -7011,19 +7011,19 @@
         <v>886726</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>864844</v>
+        <v>863367</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>905924</v>
+        <v>904432</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9089591307507584</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8865282681295027</v>
+        <v>0.8850143281883496</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9286387979812161</v>
+        <v>0.9271092995830593</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>64289</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>49510</v>
+        <v>51030</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81541</v>
+        <v>83873</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1037011872929192</v>
+        <v>0.1037011872929193</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07986255494671031</v>
+        <v>0.08231351054266459</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1315292942793045</v>
+        <v>0.1352910269823261</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>174</v>
@@ -7136,19 +7136,19 @@
         <v>129436</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>113824</v>
+        <v>112816</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>148181</v>
+        <v>149170</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2082681835470638</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1831471334879986</v>
+        <v>0.1815258251540177</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2384291674005106</v>
+        <v>0.2400200273949018</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>232</v>
@@ -7157,19 +7157,19 @@
         <v>193725</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>171849</v>
+        <v>171242</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>217548</v>
+        <v>216617</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1560496552030505</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1384280111945075</v>
+        <v>0.1379390718418372</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.17523953533975</v>
+        <v>0.1744894063060732</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>555656</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>538404</v>
+        <v>536072</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>570435</v>
+        <v>568915</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8962988127070807</v>
+        <v>0.8962988127070805</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8684707057206954</v>
+        <v>0.8647089730176739</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9201374450532898</v>
+        <v>0.9176864894573354</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>671</v>
@@ -7207,19 +7207,19 @@
         <v>492052</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>473307</v>
+        <v>472318</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>507664</v>
+        <v>508672</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7917318164529362</v>
+        <v>0.7917318164529363</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7615708325994894</v>
+        <v>0.7599799726050981</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.816852866512002</v>
+        <v>0.8184741748459823</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1158</v>
@@ -7228,19 +7228,19 @@
         <v>1047709</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1023886</v>
+        <v>1024817</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1069585</v>
+        <v>1070192</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8439503447969495</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.82476046466025</v>
+        <v>0.8255105936939269</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8615719888054925</v>
+        <v>0.8620609281581626</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>142109</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>121370</v>
+        <v>120099</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>161576</v>
+        <v>164214</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.203177308923252</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1735268743130715</v>
+        <v>0.1717083928928306</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2310092975570366</v>
+        <v>0.2347812479288048</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>318</v>
@@ -7353,19 +7353,19 @@
         <v>210594</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>193704</v>
+        <v>192934</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>233673</v>
+        <v>230587</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2862095611667722</v>
+        <v>0.2862095611667723</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2632543881828744</v>
+        <v>0.2622088471864927</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3175744281431144</v>
+        <v>0.3133814206445742</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>455</v>
@@ -7374,19 +7374,19 @@
         <v>352703</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>324458</v>
+        <v>320241</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>383803</v>
+        <v>381965</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2457455140760837</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2260656221697432</v>
+        <v>0.2231276729019377</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2674144572747746</v>
+        <v>0.2661337634655158</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>557324</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>537857</v>
+        <v>535219</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>578063</v>
+        <v>579334</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7968226910767479</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7689907024429635</v>
+        <v>0.7652187520711952</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8264731256869284</v>
+        <v>0.8282916071071694</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>821</v>
@@ -7424,19 +7424,19 @@
         <v>525210</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>502131</v>
+        <v>505217</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>542100</v>
+        <v>542870</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7137904388332278</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6824255718568857</v>
+        <v>0.6866185793554256</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7367456118171256</v>
+        <v>0.7377911528135072</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1348</v>
@@ -7445,19 +7445,19 @@
         <v>1082534</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1051434</v>
+        <v>1053272</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1110779</v>
+        <v>1114996</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7542544859239162</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7325855427252252</v>
+        <v>0.7338662365344841</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7739343778302568</v>
+        <v>0.7768723270980622</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>160917</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>141254</v>
+        <v>139480</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>180414</v>
+        <v>182419</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2645105984874878</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2321886954168692</v>
+        <v>0.2292726153584465</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2965590766936231</v>
+        <v>0.2998540225965625</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>382</v>
@@ -7570,19 +7570,19 @@
         <v>238127</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>221199</v>
+        <v>218445</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>258753</v>
+        <v>255810</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3924533197899668</v>
+        <v>0.3924533197899669</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3645542350911884</v>
+        <v>0.3600159277022424</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4264476185807064</v>
+        <v>0.4215962891466139</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>559</v>
@@ -7591,19 +7591,19 @@
         <v>399044</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>373021</v>
+        <v>371381</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>425813</v>
+        <v>427686</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.328398045634663</v>
+        <v>0.3283980456346631</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3069822428004675</v>
+        <v>0.3056323993022773</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3504274655692173</v>
+        <v>0.3519686379057059</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>447442</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>427945</v>
+        <v>425940</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>467105</v>
+        <v>468879</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7354894015125123</v>
+        <v>0.7354894015125122</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.703440923306377</v>
+        <v>0.7001459774034378</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7678113045831307</v>
+        <v>0.7707273846415535</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>617</v>
@@ -7641,19 +7641,19 @@
         <v>368638</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>348012</v>
+        <v>350955</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>385566</v>
+        <v>388320</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.607546680210033</v>
+        <v>0.6075466802100331</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5735523814192934</v>
+        <v>0.5784037108533862</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6354457649088117</v>
+        <v>0.6399840722977576</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1102</v>
@@ -7662,19 +7662,19 @@
         <v>816080</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>789311</v>
+        <v>787438</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>842103</v>
+        <v>843743</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.671601954365337</v>
+        <v>0.6716019543653371</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6495725344307828</v>
+        <v>0.6480313620942945</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6930177571995325</v>
+        <v>0.6943676006977226</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>109620</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>95759</v>
+        <v>94558</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>124960</v>
+        <v>125204</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2698585930345156</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.235737187542231</v>
+        <v>0.2327812790472298</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3076225990284447</v>
+        <v>0.3082235383042654</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>372</v>
@@ -7787,19 +7787,19 @@
         <v>205118</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>190228</v>
+        <v>189518</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>221480</v>
+        <v>219354</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.4670635454184803</v>
+        <v>0.4670635454184802</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4331571818730812</v>
+        <v>0.4315402350424537</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.504320433584977</v>
+        <v>0.499479637221599</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>528</v>
@@ -7808,19 +7808,19 @@
         <v>314738</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>294220</v>
+        <v>293790</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>336844</v>
+        <v>338241</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.3723048175378627</v>
+        <v>0.3723048175378628</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3480337125455277</v>
+        <v>0.3475252810880254</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3984541865268003</v>
+        <v>0.4001062941526071</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>296591</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>281251</v>
+        <v>281007</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>310452</v>
+        <v>311653</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7301414069654844</v>
+        <v>0.7301414069654842</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6923774009715552</v>
+        <v>0.6917764616957347</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7642628124577691</v>
+        <v>0.7672187209527701</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>455</v>
@@ -7858,19 +7858,19 @@
         <v>234048</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>217686</v>
+        <v>219812</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>248938</v>
+        <v>249648</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.5329364545815198</v>
+        <v>0.5329364545815197</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4956795664150233</v>
+        <v>0.5005203627784011</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5668428181269188</v>
+        <v>0.5684597649575465</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>868</v>
@@ -7879,19 +7879,19 @@
         <v>530640</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>508534</v>
+        <v>507137</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>551158</v>
+        <v>551588</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6276951824621372</v>
+        <v>0.6276951824621373</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6015458134731996</v>
+        <v>0.5998937058473929</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6519662874544723</v>
+        <v>0.6524747189119745</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>123432</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>108939</v>
+        <v>109550</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>137294</v>
+        <v>138148</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3979121382349542</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3511923069454151</v>
+        <v>0.3531612573492213</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4426012331829854</v>
+        <v>0.4453556360388254</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>508</v>
@@ -8004,19 +8004,19 @@
         <v>268546</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>253855</v>
+        <v>252814</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>284541</v>
+        <v>283471</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5780034075005168</v>
+        <v>0.5780034075005167</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5463834089340285</v>
+        <v>0.5441443206157227</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6124315119459555</v>
+        <v>0.6101280618451993</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>689</v>
@@ -8025,19 +8025,19 @@
         <v>391977</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>366750</v>
+        <v>371060</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>411261</v>
+        <v>413409</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.5059028808864887</v>
+        <v>0.5059028808864886</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4733432874462801</v>
+        <v>0.4789058884586951</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.530791172334024</v>
+        <v>0.533564017370724</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>186766</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>172904</v>
+        <v>172050</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>201259</v>
+        <v>200648</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6020878617650456</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5573987668170146</v>
+        <v>0.5546443639611746</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6488076930545849</v>
+        <v>0.6468387426507787</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>373</v>
@@ -8075,19 +8075,19 @@
         <v>196063</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>180068</v>
+        <v>181138</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>210754</v>
+        <v>211795</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.4219965924994833</v>
+        <v>0.4219965924994832</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3875684880540445</v>
+        <v>0.3898719381548006</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4536165910659715</v>
+        <v>0.4558556793842766</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>650</v>
@@ -8096,19 +8096,19 @@
         <v>382830</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>363546</v>
+        <v>361398</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>408057</v>
+        <v>403747</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4940971191135112</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4692088276659759</v>
+        <v>0.4664359826292759</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5266567125537197</v>
+        <v>0.5210941115413051</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>654276</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>609062</v>
+        <v>611490</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>702669</v>
+        <v>703216</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1855367598185093</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1727151730914362</v>
+        <v>0.1734037009393283</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.19925979089235</v>
+        <v>0.1994148116023773</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1819</v>
@@ -8221,19 +8221,19 @@
         <v>1141936</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1088278</v>
+        <v>1096054</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1185727</v>
+        <v>1190032</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3060317936661508</v>
+        <v>0.3060317936661509</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2916518991047409</v>
+        <v>0.2937358455596036</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3177675983608105</v>
+        <v>0.3189213233382468</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2557</v>
@@ -8242,19 +8242,19 @@
         <v>1796212</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1721414</v>
+        <v>1728697</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1866948</v>
+        <v>1868398</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2474862369778001</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2371804467427434</v>
+        <v>0.238183882976242</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2572324275934349</v>
+        <v>0.2574322023582393</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>2872122</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2823729</v>
+        <v>2823182</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2917336</v>
+        <v>2914908</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8144632401814909</v>
+        <v>0.8144632401814907</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8007402091076501</v>
+        <v>0.8005851883976223</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.827284826908564</v>
+        <v>0.8265962990606716</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3539</v>
@@ -8292,19 +8292,19 @@
         <v>2589492</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2545701</v>
+        <v>2541396</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2643150</v>
+        <v>2635374</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6939682063338491</v>
+        <v>0.6939682063338493</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6822324016391896</v>
+        <v>0.6810786766617533</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7083481008952596</v>
+        <v>0.7062641544403967</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6172</v>
@@ -8313,19 +8313,19 @@
         <v>5461614</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5390878</v>
+        <v>5389428</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5536412</v>
+        <v>5529129</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7525137630222</v>
+        <v>0.7525137630221999</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7427675724065642</v>
+        <v>0.7425677976417608</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7628195532572565</v>
+        <v>0.7618161170237578</v>
       </c>
     </row>
     <row r="27">
